--- a/EXCEL/夹具实体模板.xlsx
+++ b/EXCEL/夹具实体模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B29C418-B17B-48B7-8906-161471A03684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB54AA9-B31B-4429-9BBD-A4A665258185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="13656" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="夹具实体表" sheetId="4" r:id="rId1"/>
@@ -50,9 +50,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -126,9 +123,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +130,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,7 +424,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -429,9 +432,9 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -445,13 +448,13 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -459,289 +462,289 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/EXCEL/夹具实体模板.xlsx
+++ b/EXCEL/夹具实体模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Napol\Desktop\外包\Program\WEB\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB54AA9-B31B-4429-9BBD-A4A665258185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D689DE-5FA9-4703-8946-39C2CBAD3C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="夹具实体表" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Code</t>
   </si>
@@ -45,12 +45,16 @@
     <t>StoreHouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Buyoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +74,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -139,6 +152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,330 +437,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BBD6C5-0C5C-4A35-B5AF-205B91381C14}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="11.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
